--- a/rozwiazania/Szymon_Grzebyta/Task4_Bar_chart_by_diffrent_cities.xlsx
+++ b/rozwiazania/Szymon_Grzebyta/Task4_Bar_chart_by_diffrent_cities.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1819581.749999913</v>
+        <v>1819581.75</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2320490.610000052</v>
+        <v>2320490.61</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2747755.48000031</v>
+        <v>2747755.48</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2767975.400000301</v>
+        <v>2767975.4</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2795498.580000352</v>
+        <v>2795498.58</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3661642.010000893</v>
+        <v>3661642.01</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4664317.430001548</v>
+        <v>4664317.43</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5452570.800002085</v>
+        <v>5452570.8</v>
       </c>
     </row>
     <row r="10">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8262203.910004062</v>
+        <v>8262203.91</v>
       </c>
     </row>
   </sheetData>
